--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" firstSheet="3" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,13 @@
     <sheet name="3D" sheetId="14" r:id="rId10"/>
     <sheet name="Report" sheetId="4" r:id="rId11"/>
     <sheet name="Sheet1" sheetId="16" r:id="rId12"/>
+    <sheet name="P1" sheetId="18" r:id="rId13"/>
+    <sheet name="Sheet4" sheetId="19" r:id="rId14"/>
+    <sheet name="Sheet5" sheetId="20" r:id="rId15"/>
+    <sheet name="data" sheetId="17" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="_1" localSheetId="2">Mid!$B$48:$B$49</definedName>
@@ -36,6 +40,9 @@
     <definedName name="Us">Basic!$H$18:$H$22</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId18"/>
+  </pivotCaches>
 </workbook>
 </file>
 
@@ -87,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4320" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4370" uniqueCount="226">
   <si>
     <t>COUNTIF Function</t>
   </si>
@@ -774,11 +781,69 @@
   <si>
     <t>HLOOKUP(A24,A18:G21,4,0)</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>sales rep</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>newton</t>
+  </si>
+  <si>
+    <t>shona</t>
+  </si>
+  <si>
+    <t>marry</t>
+  </si>
+  <si>
+    <t>south east</t>
+  </si>
+  <si>
+    <t>mike</t>
+  </si>
+  <si>
+    <t>midwest</t>
+  </si>
+  <si>
+    <t>stephen</t>
+  </si>
+  <si>
+    <t>jhon</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sum of sales</t>
+  </si>
+  <si>
+    <t>Count of sales2</t>
+  </si>
+  <si>
+    <t>Average of sales2</t>
+  </si>
+  <si>
+    <t>StdDev of sales2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
@@ -937,7 +1002,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -992,8 +1057,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1375,6 +1446,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1383,7 +1482,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1536,6 +1635,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1578,6 +1712,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1590,169 +1727,57 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1799,6 +1824,36 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1817,6 +1872,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1832,6 +1901,34 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1875,13 +1972,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1896,9 +1986,177 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="40"/>
+  <c:pivotSource>
+    <c:name>[Book1.xlsx]Sheet5!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>REGION</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:showCatName val="1"/>
+          <c:showPercent val="1"/>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>midwest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>south east</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>west</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showCatName val="1"/>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2060,6 +2318,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Package">
@@ -2070,21 +2363,271 @@
 </externalLink>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lenovo" refreshedDate="45214.610839236113" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="6">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A9:E15" sheet="data"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-07-12T00:00:00" maxDate="2016-07-18T00:00:00"/>
+    </cacheField>
+    <cacheField name="region" numFmtId="0">
+      <sharedItems count="3">
+        <s v="south east"/>
+        <s v="west"/>
+        <s v="midwest"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="sales rep" numFmtId="0">
+      <sharedItems count="6">
+        <s v="mike"/>
+        <s v="newton"/>
+        <s v="shona"/>
+        <s v="marry"/>
+        <s v="stephen"/>
+        <s v="jhon"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="cogs" numFmtId="8">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1248" maxValue="5289"/>
+    </cacheField>
+    <cacheField name="sales" numFmtId="8">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2611" maxValue="7416"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="6">
+  <r>
+    <d v="2016-07-15T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2595"/>
+    <n v="6276"/>
+  </r>
+  <r>
+    <d v="2016-07-12T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3652"/>
+    <n v="7416"/>
+  </r>
+  <r>
+    <d v="2016-07-17T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1523"/>
+    <n v="6269"/>
+  </r>
+  <r>
+    <d v="2016-07-14T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="5289"/>
+    <n v="5422"/>
+  </r>
+  <r>
+    <d v="2016-07-16T00:00:00"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1248"/>
+    <n v="6829"/>
+  </r>
+  <r>
+    <d v="2016-07-13T00:00:00"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="1265"/>
+    <n v="2611"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of sales" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium5" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Sum of sales" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Count of sales2" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Average of sales2" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="StdDev of sales2" fld="4" subtotal="stdDev" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of sales" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium12" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Products" displayName="Products" ref="A17:D25" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Products" displayName="Products" ref="A17:D25" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A17:D25"/>
   <sortState ref="A18:D25">
     <sortCondition descending="1" ref="A17:A25"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="top product" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="2" name="part number" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="flightmrange" dataDxfId="8" totalsRowDxfId="5"/>
-    <tableColumn id="4" name="price" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="top product" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" name="part number" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="flightmrange" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="price" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4047,7 +4590,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4082,8 +4625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D9:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -4540,11 +5083,466 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="147" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="148">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="147" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="148">
+        <v>7416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="147" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="148">
+        <v>6269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="B3" s="146" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="147" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="148">
+        <v>6829</v>
+      </c>
+      <c r="C5" s="148">
+        <v>1</v>
+      </c>
+      <c r="D5" s="148">
+        <v>6829</v>
+      </c>
+      <c r="E5" s="148" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="147" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="148">
+        <v>8887</v>
+      </c>
+      <c r="C6" s="148">
+        <v>2</v>
+      </c>
+      <c r="D6" s="148">
+        <v>4443.5</v>
+      </c>
+      <c r="E6" s="148">
+        <v>2591.5463530486968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="147" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="148">
+        <v>19107</v>
+      </c>
+      <c r="C7" s="148">
+        <v>3</v>
+      </c>
+      <c r="D7" s="148">
+        <v>6369</v>
+      </c>
+      <c r="E7" s="148">
+        <v>1000.7542155794299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="147" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="148">
+        <v>34823</v>
+      </c>
+      <c r="C8" s="148">
+        <v>6</v>
+      </c>
+      <c r="D8" s="148">
+        <v>5803.833333333333</v>
+      </c>
+      <c r="E8" s="148">
+        <v>1698.7849088883115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="147" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="148">
+        <v>6829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="147" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="148">
+        <v>8887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="147" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="148">
+        <v>19107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="138" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="138" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="138" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="139">
+        <v>42563</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="141" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="142">
+        <v>3652</v>
+      </c>
+      <c r="E2" s="142">
+        <v>7416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="143">
+        <v>42568</v>
+      </c>
+      <c r="B3" s="140" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="141" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="142">
+        <v>1523</v>
+      </c>
+      <c r="E3" s="142">
+        <v>6269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="139">
+        <v>42565</v>
+      </c>
+      <c r="B4" s="140" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="141" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="142">
+        <v>5289</v>
+      </c>
+      <c r="E4" s="142">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="144">
+        <v>42566</v>
+      </c>
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="145">
+        <v>2595</v>
+      </c>
+      <c r="E10" s="145">
+        <v>6276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="144">
+        <v>42563</v>
+      </c>
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="145">
+        <v>3652</v>
+      </c>
+      <c r="E11" s="145">
+        <v>7416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="144">
+        <v>42568</v>
+      </c>
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="145">
+        <v>1523</v>
+      </c>
+      <c r="E12" s="145">
+        <v>6269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="144">
+        <v>42565</v>
+      </c>
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="145">
+        <v>5289</v>
+      </c>
+      <c r="E13" s="145">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="144">
+        <v>42567</v>
+      </c>
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="145">
+        <v>1248</v>
+      </c>
+      <c r="E14" s="145">
+        <v>6829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="144">
+        <v>42564</v>
+      </c>
+      <c r="B15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="145">
+        <v>1265</v>
+      </c>
+      <c r="E15" s="145">
+        <v>2611</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:E4">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$B$3=C$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>B2=$C$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>C$3=H5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showFormulas="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -4657,14 +5655,14 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="18"/>
@@ -4810,13 +5808,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -4973,37 +5971,37 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="94" t="s">
+      <c r="A29" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="94"/>
+      <c r="B29" s="115"/>
       <c r="E29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="94"/>
+      <c r="B30" s="115"/>
       <c r="E30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="94"/>
+      <c r="B31" s="115"/>
       <c r="E31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="94"/>
+      <c r="B32" s="115"/>
     </row>
     <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="10" t="s">
@@ -5062,8 +6060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -5074,15 +6072,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="101"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="59" t="s">
@@ -5256,11 +6254,11 @@
       <c r="A8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="63" t="s">
@@ -5353,29 +6351,29 @@
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="128"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="99" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="94" t="s">
         <v>148</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -5384,7 +6382,7 @@
       <c r="C18" s="68">
         <v>35</v>
       </c>
-      <c r="D18" s="115">
+      <c r="D18" s="95">
         <v>31.95</v>
       </c>
       <c r="F18" t="s">
@@ -5392,7 +6390,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="94" t="s">
         <v>152</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -5401,7 +6399,7 @@
       <c r="C19" s="68">
         <v>30</v>
       </c>
-      <c r="D19" s="115">
+      <c r="D19" s="95">
         <v>18.95</v>
       </c>
       <c r="F19" t="s">
@@ -5409,7 +6407,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="94" t="s">
         <v>156</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -5418,7 +6416,7 @@
       <c r="C20" s="68">
         <v>1</v>
       </c>
-      <c r="D20" s="115">
+      <c r="D20" s="95">
         <v>4.95</v>
       </c>
       <c r="F20" t="s">
@@ -5426,7 +6424,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="114" t="s">
+      <c r="A21" s="94" t="s">
         <v>144</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -5435,7 +6433,7 @@
       <c r="C21" s="68">
         <v>25</v>
       </c>
-      <c r="D21" s="115">
+      <c r="D21" s="95">
         <v>26.95</v>
       </c>
       <c r="F21" t="s">
@@ -5443,7 +6441,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="94" t="s">
         <v>154</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -5452,12 +6450,12 @@
       <c r="C22" s="68">
         <v>40</v>
       </c>
-      <c r="D22" s="115">
+      <c r="D22" s="95">
         <v>20.95</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="94" t="s">
         <v>150</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -5466,12 +6464,12 @@
       <c r="C23" s="68">
         <v>20</v>
       </c>
-      <c r="D23" s="115">
+      <c r="D23" s="95">
         <v>35.950000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="114" t="s">
+      <c r="A24" s="94" t="s">
         <v>158</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -5480,21 +6478,21 @@
       <c r="C24" s="68">
         <v>5</v>
       </c>
-      <c r="D24" s="115">
+      <c r="D24" s="95">
         <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="122">
+      <c r="C25" s="102">
         <v>20</v>
       </c>
-      <c r="D25" s="123">
+      <c r="D25" s="103">
         <v>28.95</v>
       </c>
     </row>
@@ -5505,12 +6503,12 @@
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="128"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="69" t="s">
@@ -5645,10 +6643,10 @@
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="104"/>
+      <c r="B38" s="125"/>
       <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -5738,15 +6736,15 @@
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
-    <cfRule type="top10" dxfId="2" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="16" priority="3" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5789,7 +6787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
@@ -5803,12 +6801,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="132"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="37" t="s">
@@ -5907,13 +6905,13 @@
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1"/>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:8" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A9" s="45"/>
@@ -5926,49 +6924,49 @@
       <c r="A10" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="109" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="125">
+      <c r="E10" s="105">
         <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75">
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="109" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="127">
+      <c r="E11" s="107">
         <v>25000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75">
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="109" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="127">
+      <c r="E12" s="107">
         <v>45000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="109" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="32" t="s">
@@ -5989,7 +6987,7 @@
       <c r="D14" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="108">
         <v>12000</v>
       </c>
     </row>
@@ -6024,7 +7022,7 @@
       <c r="A17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="109" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="37" t="s">
@@ -6038,7 +7036,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" thickBot="1">
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="109" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="32" t="s">
@@ -6052,7 +7050,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75">
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="109" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="32" t="s">
@@ -6064,12 +7062,12 @@
       <c r="E19" s="42">
         <v>45000</v>
       </c>
-      <c r="H19" s="125">
+      <c r="H19" s="105">
         <v>15000</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75">
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="109" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="32" t="s">
@@ -6081,7 +7079,7 @@
       <c r="E20" s="42">
         <v>45000</v>
       </c>
-      <c r="H20" s="127">
+      <c r="H20" s="107">
         <v>25000</v>
       </c>
     </row>
@@ -6095,7 +7093,7 @@
       <c r="E21" s="44">
         <v>12000</v>
       </c>
-      <c r="H21" s="127">
+      <c r="H21" s="107">
         <v>45000</v>
       </c>
     </row>
@@ -6121,7 +7119,7 @@
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="H23" s="128">
+      <c r="H23" s="108">
         <v>12000</v>
       </c>
     </row>
@@ -6366,10 +7364,10 @@
       <c r="A57" s="7"/>
     </row>
     <row r="58" spans="1:4" ht="18.75">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="104"/>
+      <c r="B58" s="125"/>
     </row>
     <row r="59" spans="1:4" ht="18.75">
       <c r="A59" s="7" t="s">
@@ -6441,11 +7439,11 @@
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="67" spans="1:5" ht="18.75">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="103"/>
-      <c r="C67" s="104"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="125"/>
     </row>
     <row r="68" spans="1:5" ht="18.75">
       <c r="A68" s="79" t="s">
@@ -6458,7 +7456,7 @@
         <f>IF(B68&gt;40,"pass","failed")</f>
         <v>failed</v>
       </c>
-      <c r="E68" s="130" t="s">
+      <c r="E68" s="110" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6574,11 +7572,11 @@
       <c r="A78" s="7"/>
     </row>
     <row r="79" spans="1:5" ht="18.75">
-      <c r="A79" s="102" t="s">
+      <c r="A79" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="103"/>
-      <c r="C79" s="104"/>
+      <c r="B79" s="124"/>
+      <c r="C79" s="125"/>
     </row>
     <row r="80" spans="1:5" ht="18.75">
       <c r="A80" s="79" t="s">
@@ -6591,7 +7589,7 @@
         <f t="shared" ref="C80:C88" si="1">IF(B80&gt;70,"first class",IF(B80&gt;40,"pass","fail"))</f>
         <v>fail</v>
       </c>
-      <c r="E80" s="130" t="s">
+      <c r="E80" s="110" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6707,11 +7705,11 @@
       <c r="A90" s="7"/>
     </row>
     <row r="91" spans="1:3" ht="18.75">
-      <c r="A91" s="102" t="s">
+      <c r="A91" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="103"/>
-      <c r="C91" s="104"/>
+      <c r="B91" s="124"/>
+      <c r="C91" s="125"/>
     </row>
     <row r="92" spans="1:3" ht="18.75">
       <c r="A92" s="79" t="s">
@@ -6835,13 +7833,13 @@
     </row>
     <row r="103" spans="1:5" s="48" customFormat="1"/>
     <row r="104" spans="1:5" ht="18.75">
-      <c r="A104" s="131" t="s">
+      <c r="A104" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="131"/>
-      <c r="C104" s="131"/>
-      <c r="D104" s="131"/>
-      <c r="E104" s="131"/>
+      <c r="B104" s="129"/>
+      <c r="C104" s="129"/>
+      <c r="D104" s="129"/>
+      <c r="E104" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6864,7 +7862,7 @@
   </sheetPr>
   <dimension ref="A1:I2659"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C2666" sqref="C2666"/>
     </sheetView>
   </sheetViews>
@@ -6905,7 +7903,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:9" collapsed="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="84" t="s">
         <v>192</v>
       </c>
@@ -6914,7 +7912,7 @@
         <v>322966.74899999966</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:9" outlineLevel="1" collapsed="1">
       <c r="A3" s="84" t="s">
         <v>191</v>
       </c>
@@ -9388,7 +10386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="89" spans="1:9" outlineLevel="1" collapsed="1">
       <c r="A89" s="84" t="s">
         <v>190</v>
       </c>
@@ -12181,7 +13179,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="186" spans="1:9" outlineLevel="1" collapsed="1">
       <c r="A186" s="84" t="s">
         <v>189</v>
       </c>
@@ -14510,7 +15508,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="267" spans="1:9" outlineLevel="1" collapsed="1">
       <c r="A267" s="84" t="s">
         <v>191</v>
       </c>
@@ -16752,7 +17750,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="345" spans="1:9" outlineLevel="1" collapsed="1">
       <c r="A345" s="84" t="s">
         <v>190</v>
       </c>
@@ -19139,7 +20137,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="428" spans="1:9" outlineLevel="1" collapsed="1">
       <c r="A428" s="84" t="s">
         <v>189</v>
       </c>
@@ -21497,7 +22495,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="510" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="510" spans="1:9" outlineLevel="1" collapsed="1">
       <c r="A510" s="84" t="s">
         <v>191</v>
       </c>
@@ -23826,7 +24824,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="591" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="591" spans="1:9" outlineLevel="1" collapsed="1">
       <c r="A591" s="84" t="s">
         <v>190</v>
       </c>
@@ -25952,7 +26950,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="665" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="665" spans="1:9" outlineLevel="1" collapsed="1">
       <c r="A665" s="84" t="s">
         <v>189</v>
       </c>
@@ -28484,7 +29482,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="753" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="753" spans="1:9" outlineLevel="1" collapsed="1">
       <c r="A753" s="84" t="s">
         <v>191</v>
       </c>
@@ -31103,7 +32101,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="844" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="844" spans="1:9" outlineLevel="1" collapsed="1">
       <c r="A844" s="84" t="s">
         <v>190</v>
       </c>
@@ -33345,7 +34343,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="922" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="922" spans="1:9" outlineLevel="1" collapsed="1">
       <c r="A922" s="84" t="s">
         <v>189</v>
       </c>
@@ -36022,7 +37020,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="1015" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="1015" spans="1:9" outlineLevel="1" collapsed="1">
       <c r="A1015" s="85" t="s">
         <v>193</v>
       </c>
@@ -37685,7 +38683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -37701,20 +38699,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
     </row>
     <row r="3" spans="1:11" ht="18.75">
       <c r="A3" s="37" t="s">
@@ -37773,16 +38771,16 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="133">
+      <c r="B7" s="112">
         <v>103</v>
       </c>
-      <c r="C7" s="133">
+      <c r="C7" s="112">
         <v>8</v>
       </c>
-      <c r="D7" s="134">
+      <c r="D7" s="113">
         <v>8</v>
       </c>
     </row>
@@ -37833,12 +38831,12 @@
         <f>VLOOKUP(TRIM(A12),Flipkart,4,0)</f>
         <v>5.6</v>
       </c>
-      <c r="D12" s="131" t="s">
+      <c r="D12" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="14" spans="1:11" ht="18.75">
@@ -37871,25 +38869,25 @@
         <f>VLOOKUP($A$15,Flipkart,MATCH(D$14,$A$3:$D$3,0),0)</f>
         <v>20</v>
       </c>
-      <c r="G15" s="136" t="s">
+      <c r="G15" s="137" t="s">
         <v>206</v>
       </c>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:7" ht="18.75">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="125"/>
     </row>
     <row r="18" spans="1:7" ht="18.75">
       <c r="A18" s="32" t="s">
@@ -38000,11 +38998,11 @@
         <f>HLOOKUP(A24,A18:G21,4,0)</f>
         <v>20</v>
       </c>
-      <c r="E24" s="135" t="s">
+      <c r="E24" s="134" t="s">
         <v>207</v>
       </c>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
     </row>
     <row r="27" spans="1:7" s="48" customFormat="1"/>
   </sheetData>
@@ -38044,7 +39042,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="26.25">
-      <c r="E11" s="137">
+      <c r="E11" s="114">
         <v>5</v>
       </c>
       <c r="F11" s="87">
